--- a/Documentation/Projekttagebuch/Projekttagebuch.xlsx
+++ b/Documentation/Projekttagebuch/Projekttagebuch.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="273">
   <si>
     <t>Datum</t>
   </si>
@@ -826,6 +826,9 @@
     <t>Überarbeiten der Kommentare in der Atomic Bomb</t>
   </si>
   <si>
+    <t>Clean up code</t>
+  </si>
+  <si>
     <t>Gesamt:</t>
   </si>
 </sst>
@@ -22106,18 +22109,26 @@
       <c r="Z329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="7"/>
+      <c r="A330" s="17">
+        <v>44745.0</v>
+      </c>
+      <c r="B330" s="23">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="C330" s="23">
+        <v>0.9375</v>
+      </c>
       <c r="D330" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08333333333</v>
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
       <c r="H330" s="10"/>
-      <c r="I330" s="10"/>
+      <c r="I330" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="J330" s="10"/>
       <c r="K330" s="11" t="str">
         <f t="shared" ref="K330:P330" si="316">IF(E330="x",$D330," ")</f>
@@ -22135,9 +22146,9 @@
         <f t="shared" si="316"/>
         <v> </v>
       </c>
-      <c r="O330" s="11" t="str">
+      <c r="O330" s="11">
         <f t="shared" si="316"/>
-        <v> </v>
+        <v>0.08333333333</v>
       </c>
       <c r="P330" s="11" t="str">
         <f t="shared" si="316"/>
@@ -22145,9 +22156,11 @@
       </c>
       <c r="Q330" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R330" s="12"/>
+        <v>0.08333333333</v>
+      </c>
+      <c r="R330" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="S330" s="3"/>
       <c r="T330" s="3"/>
       <c r="U330" s="3"/>
@@ -22158,18 +22171,26 @@
       <c r="Z330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
-      <c r="C331" s="7"/>
+      <c r="A331" s="17">
+        <v>44747.0</v>
+      </c>
+      <c r="B331" s="23">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="C331" s="23">
+        <v>0.4791666666666667</v>
+      </c>
       <c r="D331" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02083333333</v>
       </c>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10"/>
       <c r="H331" s="10"/>
-      <c r="I331" s="10"/>
+      <c r="I331" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="J331" s="10"/>
       <c r="K331" s="11" t="str">
         <f t="shared" ref="K331:P331" si="317">IF(E331="x",$D331," ")</f>
@@ -22187,9 +22208,9 @@
         <f t="shared" si="317"/>
         <v> </v>
       </c>
-      <c r="O331" s="11" t="str">
+      <c r="O331" s="11">
         <f t="shared" si="317"/>
-        <v> </v>
+        <v>0.02083333333</v>
       </c>
       <c r="P331" s="11" t="str">
         <f t="shared" si="317"/>
@@ -22197,9 +22218,11 @@
       </c>
       <c r="Q331" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R331" s="12"/>
+        <v>0.02083333333</v>
+      </c>
+      <c r="R331" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="S331" s="3"/>
       <c r="T331" s="3"/>
       <c r="U331" s="3"/>
@@ -22210,19 +22233,27 @@
       <c r="Z331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="7"/>
+      <c r="A332" s="17">
+        <v>44747.0</v>
+      </c>
+      <c r="B332" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="C332" s="23">
+        <v>0.75</v>
+      </c>
       <c r="D332" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
       <c r="H332" s="10"/>
       <c r="I332" s="10"/>
-      <c r="J332" s="10"/>
+      <c r="J332" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="K332" s="11" t="str">
         <f t="shared" ref="K332:P332" si="318">IF(E332="x",$D332," ")</f>
         <v> </v>
@@ -22243,15 +22274,17 @@
         <f t="shared" si="318"/>
         <v> </v>
       </c>
-      <c r="P332" s="11" t="str">
+      <c r="P332" s="11">
         <f t="shared" si="318"/>
-        <v> </v>
+        <v>0.125</v>
       </c>
       <c r="Q332" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R332" s="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="R332" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="S332" s="3"/>
       <c r="T332" s="3"/>
       <c r="U332" s="3"/>
@@ -22523,7 +22556,7 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -22552,15 +22585,15 @@
       </c>
       <c r="O338" s="32">
         <f>SUM($O$5:O337)</f>
-        <v>8.627083333</v>
+        <v>8.73125</v>
       </c>
       <c r="P338" s="32">
         <f>SUM($P$5:P337)</f>
-        <v>6.221527778</v>
+        <v>6.346527778</v>
       </c>
       <c r="Q338" s="32">
         <f>SUM($Q$5:Q337)</f>
-        <v>49.44722222</v>
+        <v>49.67638889</v>
       </c>
       <c r="R338" s="3"/>
       <c r="S338" s="3"/>
